--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\Projeto_Auto_Experts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joabe\Desktop\api_auto_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31195BA-5263-4D14-9F9D-FD19F5F168CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACB8EA-049E-499D-9516-4F2BAA0CC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cod Produto</t>
   </si>
@@ -63,57 +63,6 @@
   </si>
   <si>
     <t>C-1478</t>
-  </si>
-  <si>
-    <t>C-1528</t>
-  </si>
-  <si>
-    <t>C-1526</t>
-  </si>
-  <si>
-    <t>C-1500</t>
-  </si>
-  <si>
-    <t>L-663</t>
-  </si>
-  <si>
-    <t>L-733</t>
-  </si>
-  <si>
-    <t>L-533X</t>
-  </si>
-  <si>
-    <t>L-533</t>
-  </si>
-  <si>
-    <t>L-562</t>
-  </si>
-  <si>
-    <t>L-219</t>
-  </si>
-  <si>
-    <t>L-651</t>
-  </si>
-  <si>
-    <t>L-501</t>
-  </si>
-  <si>
-    <t>L-559</t>
-  </si>
-  <si>
-    <t>L-310</t>
-  </si>
-  <si>
-    <t>L-227X</t>
-  </si>
-  <si>
-    <t>L-577X</t>
-  </si>
-  <si>
-    <t>L-577</t>
-  </si>
-  <si>
-    <t>L-551</t>
   </si>
 </sst>
 </file>
@@ -491,140 +440,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB5349-0F6B-467F-A3D7-B804A3B2BB99}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joabe\Desktop\api_auto_experts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\api_auto_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACB8EA-049E-499D-9516-4F2BAA0CC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E606B-C319-46C0-AF13-5DFFD6F7D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,23 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cod Produto</t>
   </si>
   <si>
-    <t>C-2062</t>
-  </si>
-  <si>
-    <t>C-2044</t>
-  </si>
-  <si>
-    <t>C-3308</t>
-  </si>
-  <si>
-    <t>C-3334</t>
-  </si>
-  <si>
     <t>C-3377</t>
   </si>
   <si>
@@ -63,6 +51,30 @@
   </si>
   <si>
     <t>C-1478</t>
+  </si>
+  <si>
+    <t>C-1528</t>
+  </si>
+  <si>
+    <t>C-1526</t>
+  </si>
+  <si>
+    <t>C-1500</t>
+  </si>
+  <si>
+    <t>L-663</t>
+  </si>
+  <si>
+    <t>L-733</t>
+  </si>
+  <si>
+    <t>L-533X</t>
+  </si>
+  <si>
+    <t>L-533</t>
+  </si>
+  <si>
+    <t>L-562</t>
   </si>
 </sst>
 </file>
@@ -440,53 +452,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB5349-0F6B-467F-A3D7-B804A3B2BB99}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\api_auto_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E606B-C319-46C0-AF13-5DFFD6F7D229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCC94C-22FF-4C9A-ADC1-F6DD9DC9DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cod Produto</t>
   </si>
@@ -57,24 +57,6 @@
   </si>
   <si>
     <t>C-1526</t>
-  </si>
-  <si>
-    <t>C-1500</t>
-  </si>
-  <si>
-    <t>L-663</t>
-  </si>
-  <si>
-    <t>L-733</t>
-  </si>
-  <si>
-    <t>L-533X</t>
-  </si>
-  <si>
-    <t>L-533</t>
-  </si>
-  <si>
-    <t>L-562</t>
   </si>
 </sst>
 </file>
@@ -452,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB5349-0F6B-467F-A3D7-B804A3B2BB99}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
@@ -491,36 +473,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,39 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joab.alves\Desktop\api_auto_experts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FCC94C-22FF-4C9A-ADC1-F6DD9DC9DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BBA7F98-EDD6-4694-9802-ACF9FB0AB750}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$A$109</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -41,13 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Cod Produto</t>
+    <t xml:space="preserve">Cod Produto</t>
   </si>
   <si>
     <t>C-3377</t>
   </si>
   <si>
-    <t>C-1125</t>
+    <t xml:space="preserve">HG 41484</t>
   </si>
   <si>
     <t>C-1478</t>
@@ -62,13 +42,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,22 +61,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -117,8 +99,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,108 +425,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,7 +440,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -295,7 +466,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -347,16 +518,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -372,7 +555,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -404,7 +587,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -423,58 +606,55 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB5349-0F6B-467F-A3D7-B804A3B2BB99}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>